--- a/files/users_test.xlsx
+++ b/files/users_test.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\OWNER\STARTERS\api-starter\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="21570" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -25,21 +27,9 @@
     <t>email</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>role_id</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>John Doe</t>
   </si>
   <si>
@@ -56,22 +46,13 @@
   </si>
   <si>
     <t>alice@example.com</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>0987654321</t>
-  </si>
-  <si>
-    <t>1122334455</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,11 +115,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -180,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,9 +201,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,6 +236,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,14 +412,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,61 +431,37 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
+      <c r="C4">
         <v>1</v>
       </c>
     </row>
